--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理权属、侵权纠纷及其他民事一审案件收结案情况/人民法院审理权属、侵权纠纷及其他民事一审案件判决件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理权属、侵权纠纷及其他民事一审案件收结案情况/人民法院审理权属、侵权纠纷及其他民事一审案件判决件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,430 +483,238 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7339</v>
+      </c>
+      <c r="C2" t="n">
+        <v>298696</v>
+      </c>
+      <c r="D2" t="n">
+        <v>310000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26324</v>
+      </c>
+      <c r="F2" t="n">
+        <v>109793</v>
+      </c>
       <c r="G2" t="n">
-        <v>405094</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>491173</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20541</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15893</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1283</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7488</v>
+      </c>
+      <c r="C3" t="n">
+        <v>304472</v>
+      </c>
+      <c r="D3" t="n">
+        <v>316465</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23705</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100452</v>
+      </c>
       <c r="G3" t="n">
-        <v>383443</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>508823</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25667</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26663</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8383</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7738</v>
+      </c>
+      <c r="C4" t="n">
+        <v>290325</v>
+      </c>
+      <c r="D4" t="n">
+        <v>301963</v>
+      </c>
+      <c r="E4" t="n">
+        <v>35682</v>
+      </c>
+      <c r="F4" t="n">
+        <v>81721</v>
+      </c>
       <c r="G4" t="n">
-        <v>380663</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>521302</v>
+      </c>
+      <c r="H4" t="n">
+        <v>31535</v>
+      </c>
+      <c r="I4" t="n">
+        <v>54102</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8561</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9570</v>
+      </c>
+      <c r="C5" t="n">
+        <v>308301</v>
+      </c>
+      <c r="D5" t="n">
+        <v>320410</v>
+      </c>
+      <c r="E5" t="n">
+        <v>34346</v>
+      </c>
+      <c r="F5" t="n">
+        <v>84090</v>
+      </c>
       <c r="G5" t="n">
-        <v>403578</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>592560</v>
+      </c>
+      <c r="H5" t="n">
+        <v>56588</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77963</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9593</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12018</v>
+      </c>
+      <c r="C6" t="n">
+        <v>364430</v>
+      </c>
+      <c r="D6" t="n">
+        <v>378855</v>
+      </c>
+      <c r="E6" t="n">
+        <v>41692</v>
+      </c>
+      <c r="F6" t="n">
+        <v>99943</v>
+      </c>
       <c r="G6" t="n">
-        <v>419104</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>709596</v>
+      </c>
+      <c r="H6" t="n">
+        <v>57527</v>
+      </c>
+      <c r="I6" t="n">
+        <v>105993</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13568</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4688</v>
+        <v>15900</v>
       </c>
       <c r="C7" t="n">
-        <v>223969</v>
+        <v>457530</v>
       </c>
       <c r="D7" t="n">
-        <v>228062</v>
+        <v>474051</v>
       </c>
       <c r="E7" t="n">
-        <v>114146</v>
+        <v>60091</v>
       </c>
       <c r="F7" t="n">
-        <v>34110</v>
+        <v>134605</v>
       </c>
       <c r="G7" t="n">
-        <v>417614</v>
+        <v>854514</v>
       </c>
       <c r="H7" t="n">
-        <v>26796</v>
+        <v>46969</v>
       </c>
       <c r="I7" t="n">
-        <v>9667</v>
+        <v>117752</v>
       </c>
       <c r="J7" t="n">
-        <v>145</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5985</v>
+        <v>21397</v>
       </c>
       <c r="C8" t="n">
-        <v>244755</v>
+        <v>532083</v>
       </c>
       <c r="D8" t="n">
-        <v>252105</v>
+        <v>549860</v>
       </c>
       <c r="E8" t="n">
-        <v>28605</v>
+        <v>63424</v>
       </c>
       <c r="F8" t="n">
-        <v>122863</v>
+        <v>151908</v>
       </c>
       <c r="G8" t="n">
-        <v>448430</v>
+        <v>942862</v>
       </c>
       <c r="H8" t="n">
-        <v>24354</v>
+        <v>61294</v>
       </c>
       <c r="I8" t="n">
-        <v>12156</v>
+        <v>75078</v>
       </c>
       <c r="J8" t="n">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7686</v>
-      </c>
-      <c r="C9" t="n">
-        <v>264665</v>
-      </c>
-      <c r="D9" t="n">
-        <v>275873</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25624</v>
-      </c>
-      <c r="F9" t="n">
-        <v>110989</v>
-      </c>
-      <c r="G9" t="n">
-        <v>456423</v>
-      </c>
-      <c r="H9" t="n">
-        <v>19512</v>
-      </c>
-      <c r="I9" t="n">
-        <v>15008</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7339</v>
-      </c>
-      <c r="C10" t="n">
-        <v>298696</v>
-      </c>
-      <c r="D10" t="n">
-        <v>310000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>26324</v>
-      </c>
-      <c r="F10" t="n">
-        <v>109793</v>
-      </c>
-      <c r="G10" t="n">
-        <v>491173</v>
-      </c>
-      <c r="H10" t="n">
-        <v>20541</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15893</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7488</v>
-      </c>
-      <c r="C11" t="n">
-        <v>304472</v>
-      </c>
-      <c r="D11" t="n">
-        <v>316465</v>
-      </c>
-      <c r="E11" t="n">
-        <v>23705</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100452</v>
-      </c>
-      <c r="G11" t="n">
-        <v>508823</v>
-      </c>
-      <c r="H11" t="n">
-        <v>25667</v>
-      </c>
-      <c r="I11" t="n">
-        <v>26663</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8383</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7738</v>
-      </c>
-      <c r="C12" t="n">
-        <v>290325</v>
-      </c>
-      <c r="D12" t="n">
-        <v>301963</v>
-      </c>
-      <c r="E12" t="n">
-        <v>35682</v>
-      </c>
-      <c r="F12" t="n">
-        <v>81721</v>
-      </c>
-      <c r="G12" t="n">
-        <v>521302</v>
-      </c>
-      <c r="H12" t="n">
-        <v>31535</v>
-      </c>
-      <c r="I12" t="n">
-        <v>54102</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8561</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9570</v>
-      </c>
-      <c r="C13" t="n">
-        <v>308301</v>
-      </c>
-      <c r="D13" t="n">
-        <v>320410</v>
-      </c>
-      <c r="E13" t="n">
-        <v>34346</v>
-      </c>
-      <c r="F13" t="n">
-        <v>84090</v>
-      </c>
-      <c r="G13" t="n">
-        <v>592560</v>
-      </c>
-      <c r="H13" t="n">
-        <v>56588</v>
-      </c>
-      <c r="I13" t="n">
-        <v>77963</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9593</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>12018</v>
-      </c>
-      <c r="C14" t="n">
-        <v>364430</v>
-      </c>
-      <c r="D14" t="n">
-        <v>378855</v>
-      </c>
-      <c r="E14" t="n">
-        <v>41692</v>
-      </c>
-      <c r="F14" t="n">
-        <v>99943</v>
-      </c>
-      <c r="G14" t="n">
-        <v>709596</v>
-      </c>
-      <c r="H14" t="n">
-        <v>57527</v>
-      </c>
-      <c r="I14" t="n">
-        <v>105993</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13568</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>15900</v>
-      </c>
-      <c r="C15" t="n">
-        <v>457530</v>
-      </c>
-      <c r="D15" t="n">
-        <v>474051</v>
-      </c>
-      <c r="E15" t="n">
-        <v>60091</v>
-      </c>
-      <c r="F15" t="n">
-        <v>134605</v>
-      </c>
-      <c r="G15" t="n">
-        <v>854514</v>
-      </c>
-      <c r="H15" t="n">
-        <v>46969</v>
-      </c>
-      <c r="I15" t="n">
-        <v>117752</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5146</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>21397</v>
-      </c>
-      <c r="C16" t="n">
-        <v>532083</v>
-      </c>
-      <c r="D16" t="n">
-        <v>549860</v>
-      </c>
-      <c r="E16" t="n">
-        <v>63424</v>
-      </c>
-      <c r="F16" t="n">
-        <v>151908</v>
-      </c>
-      <c r="G16" t="n">
-        <v>942862</v>
-      </c>
-      <c r="H16" t="n">
-        <v>61294</v>
-      </c>
-      <c r="I16" t="n">
-        <v>75078</v>
-      </c>
-      <c r="J16" t="n">
         <v>19901</v>
       </c>
     </row>
